--- a/biology/Botanique/Duchesse_d'Angoulême_(rose)/Duchesse_d'Angoulême_(rose).xlsx
+++ b/biology/Botanique/Duchesse_d'Angoulême_(rose)/Duchesse_d'Angoulême_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Duchesse_d%27Angoul%C3%AAme_(rose)</t>
+          <t>Duchesse_d'Angoulême_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽDuchesse d'Angoulême’ est un cultivar de rosier ancien introduit par le rosiériste français Jean-Pierre Vibert en 1821[1],[2]. Il s'agit d'un croisement entre Rosa gallica × Rosa alba[3]. Il doit son nom à la fille aînée de Louis XVI et de Marie-Antoinette, Madame Royale, devenue duchesse d'Angoulême (1778-1851).
+ʽDuchesse d'Angoulême’ est un cultivar de rosier ancien introduit par le rosiériste français Jean-Pierre Vibert en 1821,. Il s'agit d'un croisement entre Rosa gallica × Rosa alba. Il doit son nom à la fille aînée de Louis XVI et de Marie-Antoinette, Madame Royale, devenue duchesse d'Angoulême (1778-1851).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duchesse_d%27Angoul%C3%AAme_(rose)</t>
+          <t>Duchesse_d'Angoulême_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier présente des roses opulentes et très parfumées à l'aspect bouillonné, aux pétales d'un rose très pâle presque opalescent[4], et blancs à la périphérie[3]. Elles sont pleines et grandes (26-40 pétales), de 9 cm de diamètre[5], et fleurissent en bouquets à la fin du printemps et au début de l'été[6]. À l'automne, elles laissent place à des fruits orangés piriformes[7].
-Son buisson peu érigé s'élève de 120 cm à 150 cm pour une largeur de 90 cm[2]. Il a peu d'aiguillons[4]. Son feuillage bien fourni est vert clair aux folioles pointues.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier présente des roses opulentes et très parfumées à l'aspect bouillonné, aux pétales d'un rose très pâle presque opalescent, et blancs à la périphérie. Elles sont pleines et grandes (26-40 pétales), de 9 cm de diamètre, et fleurissent en bouquets à la fin du printemps et au début de l'été. À l'automne, elles laissent place à des fruits orangés piriformes.
+Son buisson peu érigé s'élève de 120 cm à 150 cm pour une largeur de 90 cm. Il a peu d'aiguillons. Son feuillage bien fourni est vert clair aux folioles pointues.
 Sa zone de rusticité est de 4b à 8b ; il résiste donc parfaitement aux hivers très rigoureux. Il a besoin d'être taillé avant le printemps.
 Ce rosier est toujours fort prisé des amateurs de roses anciennes dans de nombreux pays du monde.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Duchesse_d%27Angoul%C3%AAme_(rose)</t>
+          <t>Duchesse_d'Angoulême_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix du mérite de la Royal Horticultural Society[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix du mérite de la Royal Horticultural Society</t>
         </is>
       </c>
     </row>
